--- a/Src/Data/Tables/CharacterDefine.xlsx
+++ b/Src/Data/Tables/CharacterDefine.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
   <si>
     <t>TypeID</t>
   </si>
@@ -47,15 +47,63 @@
     <t>初始等级</t>
   </si>
   <si>
+    <t>身高(单位:米)</t>
+  </si>
+  <si>
     <t>速度</t>
   </si>
   <si>
+    <t>生命</t>
+  </si>
+  <si>
+    <t>法力</t>
+  </si>
+  <si>
+    <t>力量成长</t>
+  </si>
+  <si>
+    <t>智力成长</t>
+  </si>
+  <si>
+    <t>敏捷成长</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>智力</t>
+  </si>
+  <si>
+    <t>敏捷</t>
+  </si>
+  <si>
+    <t>物理攻击</t>
+  </si>
+  <si>
+    <t>法术攻击</t>
+  </si>
+  <si>
+    <t>物理防御</t>
+  </si>
+  <si>
+    <t>法术防御</t>
+  </si>
+  <si>
+    <t>攻击速度</t>
+  </si>
+  <si>
+    <t>暴击概率</t>
+  </si>
+  <si>
     <t>Integer</t>
   </si>
   <si>
     <t>String</t>
   </si>
   <si>
+    <t>Float</t>
+  </si>
+  <si>
     <t>Key</t>
   </si>
   <si>
@@ -80,7 +128,52 @@
     <t>InitLevel</t>
   </si>
   <si>
+    <t>Height</t>
+  </si>
+  <si>
     <t>Speed</t>
+  </si>
+  <si>
+    <t>MaxHP</t>
+  </si>
+  <si>
+    <t>MaxMP</t>
+  </si>
+  <si>
+    <t>GrowthSTR</t>
+  </si>
+  <si>
+    <t>GrowthINT</t>
+  </si>
+  <si>
+    <t>GrowthDEX</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>DEX</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>MDEF</t>
+  </si>
+  <si>
+    <t>SPD</t>
+  </si>
+  <si>
+    <t>CRI</t>
   </si>
   <si>
     <t>战士</t>
@@ -874,7 +967,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -889,26 +982,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="61">
@@ -974,7 +1052,7 @@
     <cellStyle name="好 2" xfId="59"/>
     <cellStyle name="适中 2" xfId="60"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -1081,6 +1159,231 @@
       </fill>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1092,9 +1395,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:I10" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:I10" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:X10" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:X10" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="24">
     <tableColumn id="1" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="TID" dataDxfId="1"/>
     <tableColumn id="5" name="Name" dataDxfId="2"/>
@@ -1103,7 +1406,22 @@
     <tableColumn id="2" name="Resource" dataDxfId="5"/>
     <tableColumn id="98" name="Description" dataDxfId="6"/>
     <tableColumn id="7" name="InitLevel" dataDxfId="7"/>
-    <tableColumn id="6" name="Speed" dataDxfId="8"/>
+    <tableColumn id="6" name="Height" dataDxfId="8"/>
+    <tableColumn id="8" name="Speed" dataDxfId="9"/>
+    <tableColumn id="10" name="MaxHP" dataDxfId="10"/>
+    <tableColumn id="11" name="MaxMP" dataDxfId="11"/>
+    <tableColumn id="12" name="GrowthSTR" dataDxfId="12"/>
+    <tableColumn id="13" name="GrowthINT" dataDxfId="13"/>
+    <tableColumn id="14" name="GrowthDEX" dataDxfId="14"/>
+    <tableColumn id="15" name="STR" dataDxfId="15"/>
+    <tableColumn id="16" name="INT" dataDxfId="16"/>
+    <tableColumn id="17" name="DEX" dataDxfId="17"/>
+    <tableColumn id="18" name="AD" dataDxfId="18"/>
+    <tableColumn id="19" name="AP" dataDxfId="19"/>
+    <tableColumn id="20" name="DEF" dataDxfId="20"/>
+    <tableColumn id="21" name="MDEF" dataDxfId="21"/>
+    <tableColumn id="22" name="SPD" dataDxfId="22"/>
+    <tableColumn id="23" name="CRI" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1396,10 +1714,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4"/>
@@ -1412,7 +1730,7 @@
     <col min="9" max="16384" width="16.287037037037" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:24">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1436,63 +1754,198 @@
       <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" spans="1:24">
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:24">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:24">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1500,28 +1953,73 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
       </c>
       <c r="I4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J4" s="1">
         <v>300</v>
       </c>
+      <c r="K4" s="1">
+        <v>260</v>
+      </c>
+      <c r="L4" s="1">
+        <v>180</v>
+      </c>
+      <c r="M4" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O4" s="1">
+        <v>2</v>
+      </c>
+      <c r="P4" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>3</v>
+      </c>
+      <c r="R4" s="1">
+        <v>5</v>
+      </c>
+      <c r="S4" s="1">
+        <v>20</v>
+      </c>
+      <c r="T4" s="1">
+        <v>25</v>
+      </c>
+      <c r="U4" s="1">
+        <v>15</v>
+      </c>
+      <c r="V4" s="1">
+        <v>9</v>
+      </c>
+      <c r="W4" s="1">
+        <v>59</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13.2" spans="1:9">
+    <row r="5" s="1" customFormat="1" ht="13.2" spans="1:24">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1529,28 +2027,73 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
       </c>
       <c r="I5" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J5" s="1">
         <v>300</v>
       </c>
+      <c r="K5" s="1">
+        <v>270</v>
+      </c>
+      <c r="L5" s="1">
+        <v>290</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="N5" s="1">
+        <v>5</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="P5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>10</v>
+      </c>
+      <c r="R5" s="1">
+        <v>5</v>
+      </c>
+      <c r="S5" s="1">
+        <v>25</v>
+      </c>
+      <c r="T5" s="1">
+        <v>20</v>
+      </c>
+      <c r="U5" s="1">
+        <v>9</v>
+      </c>
+      <c r="V5" s="1">
+        <v>15</v>
+      </c>
+      <c r="W5" s="1">
+        <v>69</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:9">
+    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:24">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1558,28 +2101,73 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>300</v>
+      </c>
+      <c r="K6" s="1">
+        <v>250</v>
+      </c>
+      <c r="L6" s="1">
+        <v>260</v>
+      </c>
+      <c r="M6" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>4</v>
+      </c>
+      <c r="P6" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>4</v>
+      </c>
+      <c r="R6" s="1">
+        <v>7</v>
+      </c>
+      <c r="S6" s="1">
+        <v>25</v>
+      </c>
+      <c r="T6" s="1">
         <v>30</v>
       </c>
-      <c r="H6" s="6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>300</v>
+      <c r="U6" s="1">
+        <v>9</v>
+      </c>
+      <c r="V6" s="1">
+        <v>15</v>
+      </c>
+      <c r="W6" s="1">
+        <v>78</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>1001</v>
       </c>
@@ -1587,26 +2175,71 @@
         <v>1001</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6">
+        <v>51</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="J7" s="1">
         <v>300</v>
       </c>
+      <c r="K7" s="4">
+        <v>500</v>
+      </c>
+      <c r="L7" s="4">
+        <v>250</v>
+      </c>
+      <c r="M7" s="4">
+        <v>3</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2</v>
+      </c>
+      <c r="O7" s="4">
+        <v>2</v>
+      </c>
+      <c r="P7" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>5</v>
+      </c>
+      <c r="R7" s="4">
+        <v>5</v>
+      </c>
+      <c r="S7" s="4">
+        <v>40</v>
+      </c>
+      <c r="T7" s="4">
+        <v>40</v>
+      </c>
+      <c r="U7" s="4">
+        <v>30</v>
+      </c>
+      <c r="V7" s="4">
+        <v>30</v>
+      </c>
+      <c r="W7" s="4">
+        <v>60</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>1002</v>
       </c>
@@ -1614,26 +2247,71 @@
         <v>1002</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6">
+        <v>55</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="J8" s="1">
         <v>300</v>
       </c>
+      <c r="K8" s="4">
+        <v>3000</v>
+      </c>
+      <c r="L8" s="4">
+        <v>500</v>
+      </c>
+      <c r="M8" s="4">
+        <v>3</v>
+      </c>
+      <c r="N8" s="4">
+        <v>2</v>
+      </c>
+      <c r="O8" s="4">
+        <v>2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>10</v>
+      </c>
+      <c r="R8" s="4">
+        <v>5</v>
+      </c>
+      <c r="S8" s="4">
+        <v>100</v>
+      </c>
+      <c r="T8" s="4">
+        <v>100</v>
+      </c>
+      <c r="U8" s="4">
+        <v>60</v>
+      </c>
+      <c r="V8" s="4">
+        <v>60</v>
+      </c>
+      <c r="W8" s="4">
+        <v>60</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>1003</v>
       </c>
@@ -1641,50 +2319,190 @@
         <v>1003</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6">
+        <v>59</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="7">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
         <v>300</v>
       </c>
+      <c r="K9" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="4">
+        <v>3</v>
+      </c>
+      <c r="N9" s="4">
+        <v>2</v>
+      </c>
+      <c r="O9" s="4">
+        <v>2</v>
+      </c>
+      <c r="P9" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>5</v>
+      </c>
+      <c r="R9" s="4">
+        <v>5</v>
+      </c>
+      <c r="S9" s="4">
+        <v>200</v>
+      </c>
+      <c r="T9" s="4">
+        <v>100</v>
+      </c>
+      <c r="U9" s="4">
+        <v>150</v>
+      </c>
+      <c r="V9" s="4">
+        <v>150</v>
+      </c>
+      <c r="W9" s="4">
+        <v>60</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="7">
-        <v>1005</v>
-      </c>
-      <c r="B10" s="7">
-        <v>1005</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10">
+    <row r="10" spans="1:24">
+      <c r="A10" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1004</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="J10" s="4">
         <v>300</v>
+      </c>
+      <c r="K10" s="4">
+        <v>2000</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="4">
+        <v>3</v>
+      </c>
+      <c r="N10" s="4">
+        <v>2</v>
+      </c>
+      <c r="O10" s="4">
+        <v>2</v>
+      </c>
+      <c r="P10" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>5</v>
+      </c>
+      <c r="R10" s="4">
+        <v>5</v>
+      </c>
+      <c r="S10" s="4">
+        <v>200</v>
+      </c>
+      <c r="T10" s="4">
+        <v>100</v>
+      </c>
+      <c r="U10" s="4">
+        <v>150</v>
+      </c>
+      <c r="V10" s="4">
+        <v>150</v>
+      </c>
+      <c r="W10" s="4">
+        <v>60</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="I11" s="7">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>300</v>
+      </c>
+      <c r="K11" s="4">
+        <v>20000</v>
+      </c>
+      <c r="L11" s="4">
+        <v>10000</v>
+      </c>
+      <c r="M11" s="4">
+        <v>3</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2</v>
+      </c>
+      <c r="O11" s="4">
+        <v>2</v>
+      </c>
+      <c r="P11" s="4">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>10</v>
+      </c>
+      <c r="R11" s="4">
+        <v>5</v>
+      </c>
+      <c r="S11" s="4">
+        <v>400</v>
+      </c>
+      <c r="T11" s="4">
+        <v>300</v>
+      </c>
+      <c r="U11" s="4">
+        <v>250</v>
+      </c>
+      <c r="V11" s="4">
+        <v>250</v>
+      </c>
+      <c r="W11" s="4">
+        <v>60</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
